--- a/Experiments/Semiconductor_Laser_Diodes/Offset.xlsx
+++ b/Experiments/Semiconductor_Laser_Diodes/Offset.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Data_git\Data_Analysis\Experiments\Laser_experiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Data_git\Data_Analysis\Experiments\Semiconductor_Laser_Diodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,13 +26,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Current[mV]</t>
-  </si>
-  <si>
     <t>Output Voltage[V]</t>
   </si>
   <si>
-    <t>Measured</t>
+    <t>Measured(mV)</t>
+  </si>
+  <si>
+    <t>Current[mA]</t>
   </si>
 </sst>
 </file>
@@ -147,7 +147,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Current[mV]</c:v>
+                  <c:v>Current[mA]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -174,6 +174,65 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$14</c:f>
@@ -1314,7 +1373,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1326,13 +1385,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1340,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <f>D2/10</f>
+        <f t="shared" ref="B2:B14" si="0">D2/10</f>
         <v>0.39</v>
       </c>
       <c r="D2">
@@ -1352,7 +1411,7 @@
         <v>0.5</v>
       </c>
       <c r="B3">
-        <f>D3/10</f>
+        <f t="shared" si="0"/>
         <v>2.6399999999999997</v>
       </c>
       <c r="D3">
@@ -1364,7 +1423,7 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <f>D4/10</f>
+        <f t="shared" si="0"/>
         <v>5.0200000000000005</v>
       </c>
       <c r="D4">
@@ -1376,7 +1435,7 @@
         <v>1.5</v>
       </c>
       <c r="B5">
-        <f>D5/10</f>
+        <f t="shared" si="0"/>
         <v>7.43</v>
       </c>
       <c r="D5">
@@ -1388,7 +1447,7 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <f>D6/10</f>
+        <f t="shared" si="0"/>
         <v>9.86</v>
       </c>
       <c r="D6">
@@ -1400,7 +1459,7 @@
         <v>2.5</v>
       </c>
       <c r="B7">
-        <f>D7/10</f>
+        <f t="shared" si="0"/>
         <v>12.309999999999999</v>
       </c>
       <c r="D7">
@@ -1412,7 +1471,7 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <f>D8/10</f>
+        <f t="shared" si="0"/>
         <v>14.77</v>
       </c>
       <c r="D8">
@@ -1424,7 +1483,7 @@
         <v>3.5</v>
       </c>
       <c r="B9">
-        <f>D9/10</f>
+        <f t="shared" si="0"/>
         <v>17.240000000000002</v>
       </c>
       <c r="D9">
@@ -1436,7 +1495,7 @@
         <v>4</v>
       </c>
       <c r="B10">
-        <f>D10/10</f>
+        <f t="shared" si="0"/>
         <v>19.73</v>
       </c>
       <c r="D10">
@@ -1448,7 +1507,7 @@
         <v>4.5</v>
       </c>
       <c r="B11">
-        <f>D11/10</f>
+        <f t="shared" si="0"/>
         <v>22.22</v>
       </c>
       <c r="D11">
@@ -1460,7 +1519,7 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <f>D12/10</f>
+        <f t="shared" si="0"/>
         <v>24.73</v>
       </c>
       <c r="D12">
@@ -1472,7 +1531,7 @@
         <v>5.5</v>
       </c>
       <c r="B13">
-        <f>D13/10</f>
+        <f t="shared" si="0"/>
         <v>27.24</v>
       </c>
       <c r="D13">
@@ -1484,7 +1543,7 @@
         <v>6</v>
       </c>
       <c r="B14">
-        <f>D14/10</f>
+        <f t="shared" si="0"/>
         <v>29.74</v>
       </c>
       <c r="D14">
